--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="253">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -764,6 +764,30 @@
   </si>
   <si>
     <t>Japan Local Sales</t>
+  </si>
+  <si>
+    <t>3759107657</t>
+  </si>
+  <si>
+    <t>wvztgy793226</t>
+  </si>
+  <si>
+    <t>6312674846</t>
+  </si>
+  <si>
+    <t>gqlaat965655</t>
+  </si>
+  <si>
+    <t>0255449095</t>
+  </si>
+  <si>
+    <t>nhvagw838043</t>
+  </si>
+  <si>
+    <t>1663910091</t>
+  </si>
+  <si>
+    <t>nwhjek726863</t>
   </si>
 </sst>
 </file>
@@ -773,7 +797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -822,6 +846,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1243,73 +1287,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1583,7 +1627,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1697,8 +1741,8 @@
       <c r="AW2" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX2" s="1">
-        <v>214002901789</v>
+      <c r="AX2" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1800,7 +1844,7 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
@@ -1913,8 +1957,8 @@
       <c r="AW3" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX3" s="1">
-        <v>214002901789</v>
+      <c r="AX3" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2012,7 +2056,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2125,8 +2169,8 @@
       <c r="AW4" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX4" s="1">
-        <v>214002901789</v>
+      <c r="AX4" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2224,7 +2268,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2337,8 +2381,8 @@
       <c r="AW5" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX5" s="1">
-        <v>214002901789</v>
+      <c r="AX5" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2436,7 +2480,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2549,8 +2593,8 @@
       <c r="AW6" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX6" s="1">
-        <v>214002901789</v>
+      <c r="AX6" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2648,7 +2692,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2761,8 +2805,8 @@
       <c r="AW7" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX7" s="1">
-        <v>214002901789</v>
+      <c r="AX7" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2860,7 +2904,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -2973,8 +3017,8 @@
       <c r="AW8" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX8" s="1">
-        <v>214002901789</v>
+      <c r="AX8" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3072,7 +3116,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3182,8 +3226,8 @@
       <c r="AW9" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX9" s="1">
-        <v>214002901789</v>
+      <c r="AX9" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3281,7 +3325,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3391,8 +3435,8 @@
       <c r="AW10" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX10" s="1">
-        <v>214002901789</v>
+      <c r="AX10" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3490,7 +3534,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3603,8 +3647,8 @@
       <c r="AW11" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX11" s="1">
-        <v>214002901789</v>
+      <c r="AX11" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3702,7 +3746,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3818,8 +3862,8 @@
       <c r="AW12" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX12" s="1">
-        <v>214002901789</v>
+      <c r="AX12" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -3917,7 +3961,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -4030,8 +4074,8 @@
       <c r="AW13" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX13" s="1">
-        <v>214002901789</v>
+      <c r="AX13" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4129,7 +4173,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4245,8 +4289,8 @@
       <c r="AW14" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX14" s="1">
-        <v>214002901789</v>
+      <c r="AX14" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="261">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -788,6 +788,30 @@
   </si>
   <si>
     <t>nwhjek726863</t>
+  </si>
+  <si>
+    <t>6532802030</t>
+  </si>
+  <si>
+    <t>okbdnu260256</t>
+  </si>
+  <si>
+    <t>0892777611</t>
+  </si>
+  <si>
+    <t>ykqdde240568</t>
+  </si>
+  <si>
+    <t>9363504621</t>
+  </si>
+  <si>
+    <t>kzwyua214801</t>
+  </si>
+  <si>
+    <t>8597386052</t>
+  </si>
+  <si>
+    <t>eqhawf245032</t>
   </si>
 </sst>
 </file>
@@ -797,7 +821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -846,6 +870,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1627,7 +1671,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1742,7 +1786,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1844,7 +1888,7 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
@@ -1958,7 +2002,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2056,7 +2100,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2170,7 +2214,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2268,7 +2312,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2382,7 +2426,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2480,7 +2524,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2594,7 +2638,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2692,7 +2736,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2806,7 +2850,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2904,7 +2948,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -3018,7 +3062,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3116,7 +3160,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3227,7 +3271,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3325,7 +3369,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3436,7 +3480,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3534,7 +3578,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3648,7 +3692,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3746,7 +3790,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3863,7 +3907,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -3961,7 +4005,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -4075,7 +4119,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4173,7 +4217,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4290,7 +4334,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_Vertica.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="265">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -812,6 +812,18 @@
   </si>
   <si>
     <t>eqhawf245032</t>
+  </si>
+  <si>
+    <t>1163865385</t>
+  </si>
+  <si>
+    <t>wuupwv825253</t>
+  </si>
+  <si>
+    <t>3866704968</t>
+  </si>
+  <si>
+    <t>sosuko524494</t>
   </si>
 </sst>
 </file>
@@ -821,7 +833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -870,6 +882,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1671,7 +1693,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1786,7 +1808,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1888,7 +1910,7 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
@@ -2002,7 +2024,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2100,7 +2122,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2214,7 +2236,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2312,7 +2334,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2426,7 +2448,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2524,7 +2546,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2638,7 +2660,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2736,7 +2758,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2850,7 +2872,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2948,7 +2970,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -3062,7 +3084,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3160,7 +3182,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3271,7 +3293,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3369,7 +3391,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3480,7 +3502,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3578,7 +3600,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3692,7 +3714,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3790,7 +3812,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3907,7 +3929,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4005,7 +4027,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -4119,7 +4141,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4217,7 +4239,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4334,7 +4356,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
